--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student_PL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B50308-49A4-405E-A511-D6A56FCFDF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C030174C-3899-4DC4-95CA-95E50641D225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2ED0D050-CF9A-4561-83B5-6BAA54514650}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{2ED0D050-CF9A-4561-83B5-6BAA54514650}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="33">
   <si>
     <t>FUNKCJA</t>
   </si>
@@ -56,12 +45,6 @@
     <t>usuwanie profliu zwierzaka</t>
   </si>
   <si>
-    <t>dodawanie alergenów</t>
-  </si>
-  <si>
-    <t>usuwanie alergenów</t>
-  </si>
-  <si>
     <t>skander kodu kreskowego</t>
   </si>
   <si>
@@ -123,13 +106,31 @@
   </si>
   <si>
     <t>usuwanie profliu użytkownika</t>
+  </si>
+  <si>
+    <t>dodawanie alergenów do bazy</t>
+  </si>
+  <si>
+    <t>usuwanie alergenów z bazy</t>
+  </si>
+  <si>
+    <t>logowanie</t>
+  </si>
+  <si>
+    <t>wylogowanie</t>
+  </si>
+  <si>
+    <t>do dodania:</t>
+  </si>
+  <si>
+    <t>WYBRAĆ BAZE (siłą rzeczy i tak musimy ją wybrać ;))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +139,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +172,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBEA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,14 +228,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFBBBEA"/>
       <color rgb="FFB99CC8"/>
     </mruColors>
   </colors>
@@ -518,21 +555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FE48C1-AD46-491D-9151-B291337C2462}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -544,12 +581,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -558,12 +595,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -572,12 +609,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -586,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -600,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -614,12 +651,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -628,12 +665,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -642,12 +679,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -656,12 +693,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -670,12 +707,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -684,12 +721,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -698,12 +735,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -712,12 +749,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -726,12 +763,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -740,12 +777,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -754,12 +791,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -768,12 +805,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -782,12 +819,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -795,13 +832,14 @@
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -810,12 +848,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -824,12 +862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -838,12 +876,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -852,12 +890,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -866,12 +904,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -880,18 +918,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student_PL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C030174C-3899-4DC4-95CA-95E50641D225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E32BE4-4EBF-476F-AA5E-B23A204F41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{2ED0D050-CF9A-4561-83B5-6BAA54514650}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2ED0D050-CF9A-4561-83B5-6BAA54514650}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>FUNKCJA</t>
   </si>
@@ -60,9 +60,6 @@
     <t>usuwanie karmy z bazy</t>
   </si>
   <si>
-    <t>sprawdzanie jakosci karmy</t>
-  </si>
-  <si>
     <t>dodawanie wizyty w kalendarzu</t>
   </si>
   <si>
@@ -120,17 +117,32 @@
     <t>wylogowanie</t>
   </si>
   <si>
-    <t>do dodania:</t>
-  </si>
-  <si>
-    <t>WYBRAĆ BAZE (siłą rzeczy i tak musimy ją wybrać ;))</t>
+    <t>przypomnij hasło</t>
+  </si>
+  <si>
+    <t>SKOŃCZONE</t>
+  </si>
+  <si>
+    <t>W TRAKCIE</t>
+  </si>
+  <si>
+    <t>ustawienia aplikacji</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>wyszukiwanie karmy po kodzie</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +167,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +214,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,18 +250,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,15 +306,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,9 +346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,21 +642,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FE48C1-AD46-491D-9151-B291337C2462}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -581,138 +668,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -721,11 +808,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -735,11 +822,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -748,211 +835,264 @@
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>32</v>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
